--- a/ProgramSrc/shelData.xlsx
+++ b/ProgramSrc/shelData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,60 +441,65 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>xDegrees</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>yDegrees</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Area1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Cost1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Area2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Cost2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ResToFlood</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ResToTyphoon</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ResToEarthquake</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
@@ -506,42 +511,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>BMLTC Multi-Purpose Bldg and EC</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>14.9185376869108</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>120.766768211462</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -556,10 +561,15 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="b">
@@ -567,42 +577,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>F. Mendoza Memorial Elem Sch.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>14.9176780529243</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>120.767878787289</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -612,15 +622,20 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="b">
@@ -628,42 +643,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Calumpit Sports Complex</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>14.9185209048724</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>120.767571728115</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -678,10 +693,15 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="b">
@@ -689,42 +709,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Gatbuca Basketball Court</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>14.9221390531142</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>120.766774213649</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -739,10 +759,15 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="b">
@@ -750,42 +775,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>San Miguel Evacuation Center</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>14.9239360863606</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>120.743854227842</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -800,10 +825,15 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="b">
@@ -811,42 +841,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Doña Damiana Elem School</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>14.9183631788682</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>120.74341426756</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -856,15 +886,20 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="b">
@@ -872,42 +907,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Danga Dike</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>14.9271290793079</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>120.75016278348</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -922,10 +957,15 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="b">
@@ -933,42 +973,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Meysulao Multipurpose/E.C.</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>14.9059685215204</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>120.739306695061</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -983,10 +1023,15 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="b">
@@ -994,42 +1039,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t xml:space="preserve">Meysulao Dike </t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>14.9103133008009</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>120.738828966419</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1044,10 +1089,15 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="b">
@@ -1055,42 +1105,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Calizon Dike</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>14.9149192538653</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>120.749282551866</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1105,10 +1155,15 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="b">
@@ -1116,42 +1171,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>San Marcos Elem. Sch.</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>14.8978852342351</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>120.778807101888</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1161,15 +1216,20 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="b">
@@ -1177,42 +1237,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>San Marcos National H.S.</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>14.8938559117996</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>120.778052198391</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1222,15 +1282,20 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="b">
@@ -1238,42 +1303,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>GMA Kapuso E.C.</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>14.8957602136898</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>120.796318926682</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1288,10 +1353,15 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="b">
@@ -1299,42 +1369,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>NV9 Multi-Purpose</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>14.8984661105575</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>120.765656923103</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1349,10 +1419,15 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="b">
@@ -1360,42 +1435,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Frances E.C.</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>14.9194611702998</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>120.762172685224</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1410,10 +1485,15 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="b">
@@ -1421,42 +1501,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Balungao E.C.</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>14.9148551401837</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>120.761492937455</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1471,10 +1551,15 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="b">
@@ -1482,42 +1567,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Gugo E.C.</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>14.9020620809296</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>120.754567377767</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1532,10 +1617,15 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="b">
@@ -1543,42 +1633,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>San Marcos E.C.</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>14.8977769256005</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>120.779698188389</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1593,10 +1683,15 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="b">
@@ -1604,42 +1699,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>San Jose E.C.</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>14.8832968907295</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>120.734404217521</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1654,10 +1749,15 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="b">
@@ -1665,42 +1765,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>MEYTO Multi-Purpose/ E.C.</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>14.8833047964844</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>120.72904705443</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1715,10 +1815,15 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="b">
@@ -1726,42 +1831,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Barangay Hall Bulusan</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>14.9104237817507</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>120.742556915324</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1776,10 +1881,15 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="b">
@@ -1787,42 +1897,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>Brgy. Hall Sta. Lucia</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>14.9014927315593</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>120.736527735677</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1837,10 +1947,15 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="b">
@@ -1848,42 +1963,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Mun. Covered Court</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>14.9142263888355</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>120.765260684344</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1898,10 +2013,15 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="b">
@@ -1909,24 +2029,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>testAdd</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>0</t>
@@ -1944,7 +2064,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1959,10 +2079,15 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ProgramSrc/shelData.xlsx
+++ b/ProgramSrc/shelData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,65 +441,60 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>xDegrees</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>xDegrees</t>
+          <t>yDegrees</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>yDegrees</t>
+          <t>Area1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Area1</t>
+          <t>Cost1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Cost1</t>
+          <t>Area2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Area2</t>
+          <t>Cost2</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Cost2</t>
+          <t>ResToFlood</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ResToFlood</t>
+          <t>ResToTyphoon</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ResToTyphoon</t>
+          <t>ResToEarthquake</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>ResToEarthquake</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
@@ -511,329 +506,304 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>BMLTC Multi-Purpose Bldg and EC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BMLTC Multi-Purpose Bldg and EC</t>
+          <t>14.9185376869108</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.9185376869108</t>
+          <t>120.766768211462</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>120.766768211462</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3282</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>98460000</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>F. Mendoza Memorial Elem Sch.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14.9176780529243</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>120.767878787289</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1671</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3342</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>100260000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>F. Mendoza Memorial Elem Sch.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.9176780529243</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>120.767878787289</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Calumpit Sports Complex</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Calumpit Sports Complex</t>
+          <t>14.9185209048724</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.9185209048724</t>
+          <t>120.767571728115</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>120.767571728115</t>
+          <t>947</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1894</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>56820000</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Gatbuca Basketball Court</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gatbuca Basketball Court</t>
+          <t>14.9221390531142</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.9221390531142</t>
+          <t>120.766774213649</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>120.766774213649</t>
+          <t>376</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>752</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>22560000</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>San Miguel Meysulao High School</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>San Miguel Evacuation Center</t>
+          <t>14.9167991010101</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.9239360863606</t>
+          <t>120.742941581954</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>120.743854227842</t>
+          <t>3464</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6928</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>207840000</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="b">
@@ -841,65 +811,60 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Doña Damiana Elem School</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Doña Damiana Elem School</t>
+          <t>14.917701586824</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14.9183631788682</t>
+          <t>120.743048619728</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>120.74341426756</t>
+          <t>3135</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6270</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>188100000</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="b">
@@ -907,131 +872,121 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Danga Dike</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14.9271290793079</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>120.75016278348</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>7560000</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Danga Dike</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14.9271290793079</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>120.75016278348</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Meysulao Multipurpose/E.C.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Meysulao Multipurpose/E.C.</t>
+          <t>14.905513184046</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14.9059685215204</t>
+          <t>120.739161033176</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>120.739306695061</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>6000000</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="b">
@@ -1039,65 +994,60 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Calizon Dike</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14.9136800407707</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>120.755871075221</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>7560000</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Meysulao Dike </t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>14.9103133008009</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>120.738828966419</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="b">
@@ -1105,65 +1055,60 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>San Marcos Elem. Sch.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Calizon Dike</t>
+          <t>14.8978852342351</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14.9149192538653</t>
+          <t>120.778807101888</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>120.749282551866</t>
+          <t>1147</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2294</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>68820000</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="b">
@@ -1171,197 +1116,182 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>San Marcos National H.S.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>San Marcos Elem. Sch.</t>
+          <t>14.8933901983676</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14.8978852342351</t>
+          <t>120.777840587943</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>120.778807101888</t>
+          <t>6353</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12706</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>381180000</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>GMA Kapuso E.C.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>San Marcos National H.S.</t>
+          <t>14.8930053477281</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14.8938559117996</t>
+          <t>120.799658008805</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>120.778052198391</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>12000000</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>NV9 Multi-Purpose</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GMA Kapuso E.C.</t>
+          <t>14.8980360749457</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14.8957602136898</t>
+          <t>120.764234222054</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>120.796318926682</t>
+          <t>2513</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5026</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>150780000</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="b">
@@ -1369,725 +1299,548 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Frances E.C.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NV9 Multi-Purpose</t>
+          <t>14.9194611702998</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14.8984661105575</t>
+          <t>120.762172685224</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>120.765656923103</t>
+          <t>150</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>9000000</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Balungao E.C.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Frances E.C.</t>
+          <t>14.9148551401837</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14.9194611702998</t>
+          <t>120.761492937455</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>120.762172685224</t>
+          <t>216</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>432</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>12960000</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Gugo E.C.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Balungao E.C.</t>
+          <t>14.9013032539823</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14.9148551401837</t>
+          <t>120.754718122165</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>120.761492937455</t>
+          <t>336</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>672</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>20160000</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>San Marcos E.C.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Gugo E.C.</t>
+          <t>14.8976681596682</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>14.9020620809296</t>
+          <t>120.779685551006</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>120.754567377767</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>2400000</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>San Jose E.C.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>San Marcos E.C.</t>
+          <t>14.8832975084056</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14.8977769256005</t>
+          <t>120.734533125581</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>120.779698188389</t>
+          <t>268</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>536</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>16080000</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>MEYTO Multi-Purpose/ E.C.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>San Jose E.C.</t>
+          <t>14.8833047964844</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>14.8832968907295</t>
+          <t>120.72904705443</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>120.734404217521</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>284</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>8520000</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Barangay Hall Bulusan</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MEYTO Multi-Purpose/ E.C.</t>
+          <t>14.9087960788938</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>14.8833047964844</t>
+          <t>120.742261855893</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>120.72904705443</t>
+          <t>700</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>42000000</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Brgy. Hall Sta. Lucia</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Barangay Hall Bulusan</t>
+          <t>14.8995538574762</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14.9104237817507</t>
+          <t>120.737428917917</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>120.742556915324</t>
+          <t>150</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>9000000</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Mun. Covered Court</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Brgy. Hall Sta. Lucia</t>
+          <t>14.9141384055205</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>14.9014927315593</t>
+          <t>120.764788274642</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>120.736527735677</t>
+          <t>713</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1426</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>42780000</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="b">
-        <v>0</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Mun. Covered Court</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>14.9142263888355</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>120.765260684344</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>testAdd</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ProgramSrc/shelData.xlsx
+++ b/ProgramSrc/shelData.xlsx
@@ -556,7 +556,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Built</t>
+          <t>Damaged</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>

--- a/ProgramSrc/shelData.xlsx
+++ b/ProgramSrc/shelData.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BMLTC Multi-Purpose Bldg and EC</t>
+          <t>SSC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F. Mendoza Memorial Elem Sch.</t>
+          <t>k</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calumpit Sports Complex</t>
+          <t>EFEWG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -685,7 +685,7 @@
     </row>
     <row r="5">
       <c r="A5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
     </row>
     <row r="6">
       <c r="A6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>

--- a/ProgramSrc/shelData.xlsx
+++ b/ProgramSrc/shelData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,26 +506,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>wdw wd-Purpose Bldg and EC</t>
+          <t>F. Mendoza Memorial Elem Sch.</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14.9185376869108</v>
+        <v>14.9176780529243</v>
       </c>
       <c r="D2" t="n">
-        <v>120.766768211462</v>
+        <v>120.767878787289</v>
       </c>
       <c r="E2" t="n">
-        <v>1641</v>
+        <v>1671</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3282</v>
+        <v>3342</v>
       </c>
       <c r="H2" t="n">
-        <v>98460000</v>
+        <v>100260000</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -543,7 +543,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>io6h5</t>
+          <t>svadsvds</t>
         </is>
       </c>
     </row>
@@ -553,29 +553,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F. Mendoza Memorial Elem Sch.</t>
+          <t>Gatbuca Basketball Court</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14.9176780529243</v>
+        <v>14.9221390531142</v>
       </c>
       <c r="D3" t="n">
-        <v>120.767878787289</v>
+        <v>120.766774213649</v>
       </c>
       <c r="E3" t="n">
-        <v>1671</v>
+        <v>376</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3342</v>
+        <v>752</v>
       </c>
       <c r="H3" t="n">
-        <v>100260000</v>
+        <v>22560000</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -585,10 +585,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
+          <t>Damaged</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>hh</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="b">
@@ -596,46 +600,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calumpit Sports Complex</t>
+          <t>San Miguel Meysulao High School</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14.9185209048724</v>
+        <v>14.9167991010101</v>
       </c>
       <c r="D4" t="n">
-        <v>120.767571728115</v>
+        <v>120.742941581954</v>
       </c>
       <c r="E4" t="n">
-        <v>947</v>
+        <v>3464</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1894</v>
+        <v>6928</v>
       </c>
       <c r="H4" t="n">
-        <v>56820000</v>
+        <v>207840000</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
       </c>
       <c r="K4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>Built</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>regeg</t>
-        </is>
-      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="b">
@@ -643,29 +643,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gatbuca Basketball Court</t>
+          <t>Doña Damiana Elem School</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14.9221390531142</v>
+        <v>14.917701586824</v>
       </c>
       <c r="D5" t="n">
-        <v>120.766774213649</v>
+        <v>120.743048619728</v>
       </c>
       <c r="E5" t="n">
-        <v>376</v>
+        <v>3135</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>752</v>
+        <v>6270</v>
       </c>
       <c r="H5" t="n">
-        <v>22560000</v>
+        <v>188100000</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -675,14 +675,10 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Damaged</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>hh</t>
-        </is>
-      </c>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="b">
@@ -690,42 +686,46 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>San Miguel Meysulao High School</t>
+          <t>Danga Dike</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14.9167991010101</v>
+        <v>14.9271290793079</v>
       </c>
       <c r="D6" t="n">
-        <v>120.742941581954</v>
+        <v>120.75016278348</v>
       </c>
       <c r="E6" t="n">
-        <v>3464</v>
+        <v>126</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6928</v>
+        <v>252</v>
       </c>
       <c r="H6" t="n">
-        <v>207840000</v>
+        <v>7560000</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>Built</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="b">
@@ -733,26 +733,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Doña Damiana Elem School</t>
+          <t>Meysulao Multipurpose/E.C.</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.917701586824</v>
+        <v>14.905513184046</v>
       </c>
       <c r="D7" t="n">
-        <v>120.743048619728</v>
+        <v>120.739161033176</v>
       </c>
       <c r="E7" t="n">
-        <v>3135</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6270</v>
+        <v>200</v>
       </c>
       <c r="H7" t="n">
-        <v>188100000</v>
+        <v>6000000</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -761,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -776,32 +776,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Danga Dike</t>
+          <t>San Marcos National H.S.</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.9271290793079</v>
+        <v>14.8933901983676</v>
       </c>
       <c r="D8" t="n">
-        <v>120.75016278348</v>
+        <v>120.777840587943</v>
       </c>
       <c r="E8" t="n">
-        <v>126</v>
+        <v>6353</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>252</v>
+        <v>12706</v>
       </c>
       <c r="H8" t="n">
-        <v>7560000</v>
+        <v>381180000</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -819,26 +819,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Meysulao Multipurpose/E.C.</t>
+          <t>GMA Kapuso E.C.</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.905513184046</v>
+        <v>14.8930053477281</v>
       </c>
       <c r="D9" t="n">
-        <v>120.739161033176</v>
+        <v>120.799658008805</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H9" t="n">
-        <v>6000000</v>
+        <v>12000000</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -862,35 +862,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Calizon Dike</t>
+          <t>NV9 Multi-Purpose</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14.9136800407707</v>
+        <v>14.8980360749457</v>
       </c>
       <c r="D10" t="n">
-        <v>120.755871075221</v>
+        <v>120.764234222054</v>
       </c>
       <c r="E10" t="n">
-        <v>126</v>
+        <v>2513</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>252</v>
+        <v>5026</v>
       </c>
       <c r="H10" t="n">
-        <v>7560000</v>
+        <v>150780000</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -905,26 +905,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>San Marcos Elem. Sch.</t>
+          <t>Frances E.C.</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14.8978852342351</v>
+        <v>14.9194611702998</v>
       </c>
       <c r="D11" t="n">
-        <v>120.778807101888</v>
+        <v>120.762172685224</v>
       </c>
       <c r="E11" t="n">
-        <v>1147</v>
+        <v>150</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2294</v>
+        <v>300</v>
       </c>
       <c r="H11" t="n">
-        <v>68820000</v>
+        <v>9000000</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -948,26 +948,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>San Marcos National H.S.</t>
+          <t>Balungao E.C.</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14.8933901983676</v>
+        <v>14.9148551401837</v>
       </c>
       <c r="D12" t="n">
-        <v>120.777840587943</v>
+        <v>120.761492937455</v>
       </c>
       <c r="E12" t="n">
-        <v>6353</v>
+        <v>216</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>12706</v>
+        <v>432</v>
       </c>
       <c r="H12" t="n">
-        <v>381180000</v>
+        <v>12960000</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -976,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -991,26 +991,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GMA Kapuso E.C.</t>
+          <t>Gugo E.C.</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14.8930053477281</v>
+        <v>14.9013032539823</v>
       </c>
       <c r="D13" t="n">
-        <v>120.799658008805</v>
+        <v>120.754718122165</v>
       </c>
       <c r="E13" t="n">
-        <v>200</v>
+        <v>336</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>400</v>
+        <v>672</v>
       </c>
       <c r="H13" t="n">
-        <v>12000000</v>
+        <v>20160000</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -1034,26 +1034,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NV9 Multi-Purpose</t>
+          <t>San Marcos E.C.</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14.8980360749457</v>
+        <v>14.8976681596682</v>
       </c>
       <c r="D14" t="n">
-        <v>120.764234222054</v>
+        <v>120.779685551006</v>
       </c>
       <c r="E14" t="n">
-        <v>2513</v>
+        <v>40</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5026</v>
+        <v>80</v>
       </c>
       <c r="H14" t="n">
-        <v>150780000</v>
+        <v>2400000</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -1077,26 +1077,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Frances E.C.</t>
+          <t>San Jose E.C.</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14.9194611702998</v>
+        <v>14.8832975084056</v>
       </c>
       <c r="D15" t="n">
-        <v>120.762172685224</v>
+        <v>120.734533125581</v>
       </c>
       <c r="E15" t="n">
-        <v>150</v>
+        <v>268</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>300</v>
+        <v>536</v>
       </c>
       <c r="H15" t="n">
-        <v>9000000</v>
+        <v>16080000</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -1120,26 +1120,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Balungao E.C.</t>
+          <t>MEYTO Multi-Purpose/ E.C.</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14.9148551401837</v>
+        <v>14.8833047964844</v>
       </c>
       <c r="D16" t="n">
-        <v>120.761492937455</v>
+        <v>120.72904705443</v>
       </c>
       <c r="E16" t="n">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>432</v>
+        <v>284</v>
       </c>
       <c r="H16" t="n">
-        <v>12960000</v>
+        <v>8520000</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1163,26 +1163,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Gugo E.C.</t>
+          <t>Barangay Hall Bulusan</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14.9013032539823</v>
+        <v>14.9087960788938</v>
       </c>
       <c r="D17" t="n">
-        <v>120.754718122165</v>
+        <v>120.742261855893</v>
       </c>
       <c r="E17" t="n">
-        <v>336</v>
+        <v>700</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>672</v>
+        <v>1400</v>
       </c>
       <c r="H17" t="n">
-        <v>20160000</v>
+        <v>42000000</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1206,26 +1206,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>San Marcos E.C.</t>
+          <t>Brgy. Hall Sta. Lucia</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>14.8976681596682</v>
+        <v>14.8995538574762</v>
       </c>
       <c r="D18" t="n">
-        <v>120.779685551006</v>
+        <v>120.737428917917</v>
       </c>
       <c r="E18" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="H18" t="n">
-        <v>2400000</v>
+        <v>9000000</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -1249,26 +1249,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>San Jose E.C.</t>
+          <t>Mun. Covered Court</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>14.8832975084056</v>
+        <v>14.9141384055205</v>
       </c>
       <c r="D19" t="n">
-        <v>120.734533125581</v>
+        <v>120.764788274642</v>
       </c>
       <c r="E19" t="n">
-        <v>268</v>
+        <v>713</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>536</v>
+        <v>1426</v>
       </c>
       <c r="H19" t="n">
-        <v>16080000</v>
+        <v>42780000</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1285,178 +1285,6 @@
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="b">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MEYTO Multi-Purpose/ E.C.</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>14.8833047964844</v>
-      </c>
-      <c r="D20" t="n">
-        <v>120.72904705443</v>
-      </c>
-      <c r="E20" t="n">
-        <v>142</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>284</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8520000</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="b">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Barangay Hall Bulusan</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>14.9087960788938</v>
-      </c>
-      <c r="D21" t="n">
-        <v>120.742261855893</v>
-      </c>
-      <c r="E21" t="n">
-        <v>700</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1400</v>
-      </c>
-      <c r="H21" t="n">
-        <v>42000000</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="b">
-        <v>1</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Brgy. Hall Sta. Lucia</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>14.8995538574762</v>
-      </c>
-      <c r="D22" t="n">
-        <v>120.737428917917</v>
-      </c>
-      <c r="E22" t="n">
-        <v>150</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>300</v>
-      </c>
-      <c r="H22" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="b">
-        <v>1</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Mun. Covered Court</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>14.9141384055205</v>
-      </c>
-      <c r="D23" t="n">
-        <v>120.764788274642</v>
-      </c>
-      <c r="E23" t="n">
-        <v>713</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1426</v>
-      </c>
-      <c r="H23" t="n">
-        <v>42780000</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ProgramSrc/shelData.xlsx
+++ b/ProgramSrc/shelData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="b">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -527,13 +527,13 @@
       <c r="H2" t="n">
         <v>100260000</v>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="b">
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="b">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -574,13 +574,13 @@
       <c r="H3" t="n">
         <v>22560000</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="b">
+      <c r="A4" t="n">
         <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -621,13 +621,13 @@
       <c r="H4" t="n">
         <v>207840000</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="inlineStr">
@@ -638,7 +638,7 @@
       <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="b">
+      <c r="A5" t="n">
         <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -664,13 +664,13 @@
       <c r="H5" t="n">
         <v>188100000</v>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="b">
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="inlineStr">
@@ -681,7 +681,7 @@
       <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="b">
+      <c r="A6" t="n">
         <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -707,13 +707,13 @@
       <c r="H6" t="n">
         <v>7560000</v>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="b">
+      <c r="A7" t="n">
         <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -754,13 +754,13 @@
       <c r="H7" t="n">
         <v>6000000</v>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" t="b">
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="inlineStr">
@@ -771,7 +771,7 @@
       <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="b">
+      <c r="A8" t="n">
         <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -797,13 +797,13 @@
       <c r="H8" t="n">
         <v>381180000</v>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" t="b">
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="inlineStr">
@@ -814,7 +814,7 @@
       <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="b">
+      <c r="A9" t="n">
         <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -840,13 +840,13 @@
       <c r="H9" t="n">
         <v>12000000</v>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" t="b">
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
       </c>
       <c r="L9" t="inlineStr">
@@ -857,7 +857,7 @@
       <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="b">
+      <c r="A10" t="n">
         <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -883,13 +883,13 @@
       <c r="H10" t="n">
         <v>150780000</v>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" t="b">
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
       <c r="L10" t="inlineStr">
@@ -900,7 +900,7 @@
       <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="b">
+      <c r="A11" t="n">
         <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -926,13 +926,13 @@
       <c r="H11" t="n">
         <v>9000000</v>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" t="b">
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="inlineStr">
@@ -943,7 +943,7 @@
       <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="b">
+      <c r="A12" t="n">
         <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -969,13 +969,13 @@
       <c r="H12" t="n">
         <v>12960000</v>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="b">
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
       </c>
       <c r="L12" t="inlineStr">
@@ -986,7 +986,7 @@
       <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="b">
+      <c r="A13" t="n">
         <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -1012,13 +1012,13 @@
       <c r="H13" t="n">
         <v>20160000</v>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" t="b">
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
       </c>
       <c r="L13" t="inlineStr">
@@ -1029,7 +1029,7 @@
       <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="b">
+      <c r="A14" t="n">
         <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -1055,13 +1055,13 @@
       <c r="H14" t="n">
         <v>2400000</v>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" t="b">
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" t="inlineStr">
@@ -1072,7 +1072,7 @@
       <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="b">
+      <c r="A15" t="n">
         <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -1098,13 +1098,13 @@
       <c r="H15" t="n">
         <v>16080000</v>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" t="b">
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
       </c>
       <c r="L15" t="inlineStr">
@@ -1115,7 +1115,7 @@
       <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="b">
+      <c r="A16" t="n">
         <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -1141,13 +1141,13 @@
       <c r="H16" t="n">
         <v>8520000</v>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" t="b">
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
       </c>
       <c r="L16" t="inlineStr">
@@ -1158,7 +1158,7 @@
       <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="b">
+      <c r="A17" t="n">
         <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -1184,13 +1184,13 @@
       <c r="H17" t="n">
         <v>42000000</v>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" t="b">
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
       </c>
       <c r="L17" t="inlineStr">
@@ -1201,7 +1201,7 @@
       <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="b">
+      <c r="A18" t="n">
         <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -1227,13 +1227,13 @@
       <c r="H18" t="n">
         <v>9000000</v>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" t="b">
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
         <v>1</v>
       </c>
       <c r="L18" t="inlineStr">
@@ -1244,7 +1244,7 @@
       <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="b">
+      <c r="A19" t="n">
         <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -1270,13 +1270,13 @@
       <c r="H19" t="n">
         <v>42780000</v>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" t="b">
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
         <v>1</v>
       </c>
       <c r="L19" t="inlineStr">
@@ -1285,6 +1285,94 @@
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>testAdd</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>testAdd</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ProgramSrc/shelData.xlsx
+++ b/ProgramSrc/shelData.xlsx
@@ -506,26 +506,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pambayang Dalubhasaan ng Marilao</t>
+          <t>BMLTC Multi-Purpose Bldg and EC</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14.7718799806491</v>
+        <v>14.9185376869108</v>
       </c>
       <c r="D2" t="n">
-        <v>120.94091440623</v>
+        <v>120.786768211462</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1641</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3282</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>98460000</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -549,26 +549,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abangan Norte Elementary School</t>
+          <t>F. Mendoza Memorial Elem Sch.</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14.7752529921365</v>
+        <v>14.9176780529243</v>
       </c>
       <c r="D3" t="n">
-        <v>120.944265521577</v>
+        <v>120.767878787289</v>
       </c>
       <c r="E3" t="n">
-        <v>240</v>
+        <v>1671</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3342</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100260000</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -592,44 +592,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>w</t>
+          <t>Calumpit Sports Complex</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>14.9185209048724</v>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>120.767571728115</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>947</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1894</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>56820000</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Damaged</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>232</v>
-      </c>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="b">
@@ -637,26 +635,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Our Mother of Perpetual Help Chapel</t>
+          <t>Gatbuca Basketball Court</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14.7696189084995</v>
+        <v>14.9221390531142</v>
       </c>
       <c r="D5" t="n">
-        <v>120.936960060086</v>
+        <v>120.766774213649</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>752</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>22560000</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -680,26 +678,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Abangan Sur Elementary School</t>
+          <t>San Miguel Meysulao High School</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14.7647143396197</v>
+        <v>14.9167991010101</v>
       </c>
       <c r="D6" t="n">
-        <v>120.942286137427</v>
+        <v>120.742941581954</v>
       </c>
       <c r="E6" t="n">
-        <v>720</v>
+        <v>3464</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>6928</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>207840000</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -723,26 +721,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Abangan Sur Covered Court</t>
+          <t>Doña Damiana Elem School</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>14.917701586824</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>120.743048619728</v>
       </c>
       <c r="E7" t="n">
-        <v>525</v>
+        <v>3135</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>6270</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>188100000</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -751,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -766,35 +764,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ibayo Elementary School</t>
+          <t>Danga Dike</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.7535649557989</v>
+        <v>14.9271290793079</v>
       </c>
       <c r="D8" t="n">
-        <v>120.959816737558</v>
+        <v>120.75016278348</v>
       </c>
       <c r="E8" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>7560000</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -809,26 +807,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Northville IV-A Covered Court</t>
+          <t>Meysulao Multipurpose/E.C.</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.7713627238379</v>
+        <v>14.905513184046</v>
       </c>
       <c r="D9" t="n">
-        <v>120.975210215387</v>
+        <v>120.739161033176</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -852,35 +850,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lias Elementary School</t>
+          <t>Calizon Dike</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14.7627779447143</v>
+        <v>14.9136800407707</v>
       </c>
       <c r="D10" t="n">
-        <v>120.965390844846</v>
+        <v>120.755871075221</v>
       </c>
       <c r="E10" t="n">
-        <v>448</v>
+        <v>126</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>7560000</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -895,26 +893,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FSS Patulo Elementary School</t>
+          <t>San Marcos Elem. Sch.</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14.7839553140957</v>
+        <v>14.8978852342351</v>
       </c>
       <c r="D11" t="n">
-        <v>121.027062736924</v>
+        <v>120.778807101888</v>
       </c>
       <c r="E11" t="n">
-        <v>300</v>
+        <v>1147</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2294</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>68820000</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -923,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -938,26 +936,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Marilao Central School</t>
+          <t>San Marcos National H.S.</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14.7549081782114</v>
+        <v>14.8933901983676</v>
       </c>
       <c r="D12" t="n">
-        <v>120.949191076043</v>
+        <v>120.777840587943</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>6353</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>12706</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>381180000</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -966,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -981,26 +979,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Barangay Hall Nagbalon</t>
+          <t>GMA Kapuso E.C.</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14.7523618894178</v>
+        <v>14.8930053477281</v>
       </c>
       <c r="D13" t="n">
-        <v>120.950788291388</v>
+        <v>120.799658008805</v>
       </c>
       <c r="E13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -1024,26 +1022,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Patubig Elementary School</t>
+          <t>NV9 Multi-Purpose</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14.7788884149633</v>
+        <v>14.8980360749457</v>
       </c>
       <c r="D14" t="n">
-        <v>120.960345299663</v>
+        <v>120.764234222054</v>
       </c>
       <c r="E14" t="n">
-        <v>75</v>
+        <v>2513</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5026</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>150780000</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -1067,26 +1065,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Old Municipal Bldg.</t>
+          <t>Frances E.C.</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14.7573006861396</v>
+        <v>14.9194611702998</v>
       </c>
       <c r="D15" t="n">
-        <v>120.948177254006</v>
+        <v>120.762172685224</v>
       </c>
       <c r="E15" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>9000000</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -1110,26 +1108,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nicanor V. Guillermo Covered Court</t>
+          <t>Balungao E.C.</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14.7596963612126</v>
+        <v>14.9148551401837</v>
       </c>
       <c r="D16" t="n">
-        <v>120.943803121954</v>
+        <v>120.761492937455</v>
       </c>
       <c r="E16" t="n">
-        <v>1800</v>
+        <v>216</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12960000</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1153,26 +1151,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Prenza Elementary School</t>
+          <t>Gugo E.C.</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14.7836362981373</v>
+        <v>14.9013032539823</v>
       </c>
       <c r="D17" t="n">
-        <v>120.984338290888</v>
+        <v>120.754718122165</v>
       </c>
       <c r="E17" t="n">
-        <v>120</v>
+        <v>336</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>20160000</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1196,26 +1194,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Saog Elementary School</t>
+          <t>San Marcos E.C.</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>14.765465938427</v>
+        <v>14.8976681596682</v>
       </c>
       <c r="D18" t="n">
-        <v>120.956198167611</v>
+        <v>120.779685551006</v>
       </c>
       <c r="E18" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2400000</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -1239,26 +1237,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ramcar Covered Court</t>
+          <t>San Jose E.C.</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>14.7646177280722</v>
+        <v>14.8832975084056</v>
       </c>
       <c r="D19" t="n">
-        <v>120.954403339867</v>
+        <v>120.734533125581</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>16080000</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1282,26 +1280,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sta. Rosa I Elementary School</t>
+          <t>MEYTO Multi-Purpose/ E.C.</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>14.7789562092006</v>
+        <v>14.8833047964844</v>
       </c>
       <c r="D20" t="n">
-        <v>120.973228584392</v>
+        <v>120.72904705443</v>
       </c>
       <c r="E20" t="n">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>8520000</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -1325,26 +1323,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sta. Rosa II Elementary School</t>
+          <t>Barangay Hall Bulusan</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14.7865722729873</v>
+        <v>14.9087960788938</v>
       </c>
       <c r="D21" t="n">
-        <v>120.968978114161</v>
+        <v>120.742261855893</v>
       </c>
       <c r="E21" t="n">
-        <v>1615</v>
+        <v>700</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>42000000</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -1368,26 +1366,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Barangay Hall Tabing Ilog</t>
+          <t>Brgy. Hall Sta. Lucia</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14.7656033896092</v>
+        <v>14.8995538574762</v>
       </c>
       <c r="D22" t="n">
-        <v>120.948513036352</v>
+        <v>120.737428917917</v>
       </c>
       <c r="E22" t="n">
-        <v>272</v>
+        <v>150</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>9000000</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -1411,26 +1409,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tabing Ilog Elementary School</t>
+          <t>Mun. Covered Court</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>14.7652274561484</v>
+        <v>14.9141384055205</v>
       </c>
       <c r="D23" t="n">
-        <v>120.948821314155</v>
+        <v>120.764788274642</v>
       </c>
       <c r="E23" t="n">
-        <v>798</v>
+        <v>713</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1426</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>42780000</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>

--- a/ProgramSrc/shelData.xlsx
+++ b/ProgramSrc/shelData.xlsx
@@ -502,82 +502,118 @@
     </row>
     <row r="2">
       <c r="A2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>BMLTC Multi-Purpose Bldg and EC</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>14.9185376869108</v>
-      </c>
-      <c r="D2" t="n">
-        <v>120.786768211462</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1641</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3282</v>
-      </c>
-      <c r="H2" t="n">
-        <v>98460000</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>14.9185376869108</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>120.786768211462</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1641</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3282</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>98460000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Built</t>
+          <t>Damaged</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>F. Mendoza Memorial Elem Sch.</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>14.9176780529243</v>
-      </c>
-      <c r="D3" t="n">
-        <v>120.767878787289</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1671</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3342</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100260000</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14.9176780529243</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>120.767878787289</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1671</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3342</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>100260000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -588,82 +624,118 @@
     </row>
     <row r="4">
       <c r="A4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Calumpit Sports Complex</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>14.9185209048724</v>
-      </c>
-      <c r="D4" t="n">
-        <v>120.767571728115</v>
-      </c>
-      <c r="E4" t="n">
-        <v>947</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1894</v>
-      </c>
-      <c r="H4" t="n">
-        <v>56820000</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14.9185209048724</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120.767571728115</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1894</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>56820000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Built</t>
+          <t>Partially Built</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Gatbuca Basketball Court</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>14.9221390531142</v>
-      </c>
-      <c r="D5" t="n">
-        <v>120.766774213649</v>
-      </c>
-      <c r="E5" t="n">
-        <v>376</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>752</v>
-      </c>
-      <c r="H5" t="n">
-        <v>22560000</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14.9221390531142</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>120.766774213649</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22560000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -674,39 +746,57 @@
     </row>
     <row r="6">
       <c r="A6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>San Miguel Meysulao High School</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>14.9167991010101</v>
-      </c>
-      <c r="D6" t="n">
-        <v>120.742941581954</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3464</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6928</v>
-      </c>
-      <c r="H6" t="n">
-        <v>207840000</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14.9167991010101</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>120.742941581954</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3464</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6928</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>207840000</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -724,32 +814,50 @@
           <t>Doña Damiana Elem School</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>14.917701586824</v>
-      </c>
-      <c r="D7" t="n">
-        <v>120.743048619728</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3135</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6270</v>
-      </c>
-      <c r="H7" t="n">
-        <v>188100000</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14.917701586824</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>120.743048619728</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3135</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6270</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>188100000</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -767,32 +875,50 @@
           <t>Danga Dike</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>14.9271290793079</v>
-      </c>
-      <c r="D8" t="n">
-        <v>120.75016278348</v>
-      </c>
-      <c r="E8" t="n">
-        <v>126</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>252</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7560000</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14.9271290793079</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>120.75016278348</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>7560000</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -803,39 +929,57 @@
     </row>
     <row r="9">
       <c r="A9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Meysulao Multipurpose/E.C.</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>14.905513184046</v>
-      </c>
-      <c r="D9" t="n">
-        <v>120.739161033176</v>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>200</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14.905513184046</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>120.739161033176</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6000000</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -853,32 +997,50 @@
           <t>Calizon Dike</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>14.9136800407707</v>
-      </c>
-      <c r="D10" t="n">
-        <v>120.755871075221</v>
-      </c>
-      <c r="E10" t="n">
-        <v>126</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>252</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7560000</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14.9136800407707</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>120.755871075221</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>7560000</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -896,32 +1058,50 @@
           <t>San Marcos Elem. Sch.</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>14.8978852342351</v>
-      </c>
-      <c r="D11" t="n">
-        <v>120.778807101888</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1147</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2294</v>
-      </c>
-      <c r="H11" t="n">
-        <v>68820000</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>14.8978852342351</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>120.778807101888</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1147</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>68820000</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -939,32 +1119,50 @@
           <t>San Marcos National H.S.</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>14.8933901983676</v>
-      </c>
-      <c r="D12" t="n">
-        <v>120.777840587943</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6353</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>12706</v>
-      </c>
-      <c r="H12" t="n">
-        <v>381180000</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14.8933901983676</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>120.777840587943</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6353</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>12706</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>381180000</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -982,36 +1180,54 @@
           <t>GMA Kapuso E.C.</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>14.8930053477281</v>
-      </c>
-      <c r="D13" t="n">
-        <v>120.799658008805</v>
-      </c>
-      <c r="E13" t="n">
-        <v>200</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>400</v>
-      </c>
-      <c r="H13" t="n">
-        <v>12000000</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14.8930053477281</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>120.799658008805</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12000000</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Built</t>
+          <t>Damaged</t>
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
@@ -1025,32 +1241,50 @@
           <t>NV9 Multi-Purpose</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>14.8980360749457</v>
-      </c>
-      <c r="D14" t="n">
-        <v>120.764234222054</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2513</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5026</v>
-      </c>
-      <c r="H14" t="n">
-        <v>150780000</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14.8980360749457</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>120.764234222054</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2513</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>5026</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>150780000</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1068,32 +1302,50 @@
           <t>Frances E.C.</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>14.9194611702998</v>
-      </c>
-      <c r="D15" t="n">
-        <v>120.762172685224</v>
-      </c>
-      <c r="E15" t="n">
-        <v>150</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>300</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14.9194611702998</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>120.762172685224</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>9000000</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1111,32 +1363,50 @@
           <t>Balungao E.C.</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>14.9148551401837</v>
-      </c>
-      <c r="D16" t="n">
-        <v>120.761492937455</v>
-      </c>
-      <c r="E16" t="n">
-        <v>216</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>432</v>
-      </c>
-      <c r="H16" t="n">
-        <v>12960000</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14.9148551401837</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>120.761492937455</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>12960000</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1147,39 +1417,57 @@
     </row>
     <row r="17">
       <c r="A17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Gugo E.C.</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>14.9013032539823</v>
-      </c>
-      <c r="D17" t="n">
-        <v>120.754718122165</v>
-      </c>
-      <c r="E17" t="n">
-        <v>336</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>672</v>
-      </c>
-      <c r="H17" t="n">
-        <v>20160000</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>14.9013032539823</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>120.754718122165</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>20160000</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1190,39 +1478,57 @@
     </row>
     <row r="18">
       <c r="A18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>San Marcos E.C.</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>14.8976681596682</v>
-      </c>
-      <c r="D18" t="n">
-        <v>120.779685551006</v>
-      </c>
-      <c r="E18" t="n">
-        <v>40</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>80</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2400000</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14.8976681596682</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>120.779685551006</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2400000</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1233,39 +1539,57 @@
     </row>
     <row r="19">
       <c r="A19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>San Jose E.C.</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>14.8832975084056</v>
-      </c>
-      <c r="D19" t="n">
-        <v>120.734533125581</v>
-      </c>
-      <c r="E19" t="n">
-        <v>268</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>536</v>
-      </c>
-      <c r="H19" t="n">
-        <v>16080000</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14.8832975084056</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>120.734533125581</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>16080000</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1276,39 +1600,57 @@
     </row>
     <row r="20">
       <c r="A20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>MEYTO Multi-Purpose/ E.C.</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>14.8833047964844</v>
-      </c>
-      <c r="D20" t="n">
-        <v>120.72904705443</v>
-      </c>
-      <c r="E20" t="n">
-        <v>142</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>284</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8520000</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14.8833047964844</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>120.72904705443</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>8520000</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1326,32 +1668,50 @@
           <t>Barangay Hall Bulusan</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>14.9087960788938</v>
-      </c>
-      <c r="D21" t="n">
-        <v>120.742261855893</v>
-      </c>
-      <c r="E21" t="n">
-        <v>700</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1400</v>
-      </c>
-      <c r="H21" t="n">
-        <v>42000000</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14.9087960788938</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>120.742261855893</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>42000000</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1369,32 +1729,50 @@
           <t>Brgy. Hall Sta. Lucia</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>14.8995538574762</v>
-      </c>
-      <c r="D22" t="n">
-        <v>120.737428917917</v>
-      </c>
-      <c r="E22" t="n">
-        <v>150</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>300</v>
-      </c>
-      <c r="H22" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14.8995538574762</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>120.737428917917</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>9000000</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1412,32 +1790,50 @@
           <t>Mun. Covered Court</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>14.9141384055205</v>
-      </c>
-      <c r="D23" t="n">
-        <v>120.764788274642</v>
-      </c>
-      <c r="E23" t="n">
-        <v>713</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1426</v>
-      </c>
-      <c r="H23" t="n">
-        <v>42780000</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14.9141384055205</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>120.764788274642</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1426</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>42780000</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>

--- a/ProgramSrc/shelData.xlsx
+++ b/ProgramSrc/shelData.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BMLTC Multi-Purpose Bldg and EC</t>
+          <t>wdw</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -563,7 +563,7 @@
     </row>
     <row r="3">
       <c r="A3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
     </row>
     <row r="7">
       <c r="A7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="8">
       <c r="A8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
     </row>
     <row r="9">
       <c r="A9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>

--- a/ProgramSrc/shelData.xlsx
+++ b/ProgramSrc/shelData.xlsx
@@ -563,7 +563,7 @@
     </row>
     <row r="3">
       <c r="A3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
     </row>
     <row r="9">
       <c r="A9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
     </row>
     <row r="10">
       <c r="A10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="11">
       <c r="A11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="12">
       <c r="A12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="13">
       <c r="A13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="15">
       <c r="A15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="16">
       <c r="A16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="21">
       <c r="A21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="22">
       <c r="A22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>

--- a/ProgramSrc/shelData.xlsx
+++ b/ProgramSrc/shelData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,26 +502,26 @@
     </row>
     <row r="2">
       <c r="A2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>wdw</t>
+          <t>San Miguel Meysulao High School</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14.9185376869108</t>
+          <t>14.9167991010101</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>120.786768211462</t>
+          <t>120.742941581954</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1641</t>
+          <t>3464</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -531,12 +531,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3282</t>
+          <t>6928</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>98460000</t>
+          <t>207840000</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -556,33 +556,33 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Damaged</t>
+          <t>Built</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F. Mendoza Memorial Elem Sch.</t>
+          <t>Danga Dike</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14.9176780529243</t>
+          <t>14.9271290793079</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>120.767878787289</t>
+          <t>120.75016278348</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1671</t>
+          <t>126</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -592,22 +592,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3342</t>
+          <t>252</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>100260000</t>
+          <t>7560000</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -617,33 +617,33 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Built</t>
+          <t>Partially Built</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calumpit Sports Complex</t>
+          <t>San Marcos Elem. Sch.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14.9185209048724</t>
+          <t>14.8978852342351</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>120.767571728115</t>
+          <t>120.778807101888</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>1147</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -653,12 +653,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1894</t>
+          <t>2294</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>56820000</t>
+          <t>68820000</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Partially Built</t>
+          <t>Built</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
@@ -689,22 +689,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gatbuca Basketball Court</t>
+          <t>San Marcos National H.S.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14.9221390531142</t>
+          <t>14.8933901983676</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>120.766774213649</t>
+          <t>120.777840587943</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>6353</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -714,12 +714,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>12706</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>22560000</t>
+          <t>381180000</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -750,22 +750,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>San Miguel Meysulao High School</t>
+          <t>GMA Kapuso E.C.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14.9167991010101</t>
+          <t>14.8930053477281</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>120.742941581954</t>
+          <t>120.799658008805</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3464</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -775,58 +775,58 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6928</t>
+          <t>400</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>207840000</t>
+          <t>12000000</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Built</t>
+          <t>Damaged</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Doña Damiana Elem School</t>
+          <t>NV9 Multi-Purpose</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14.917701586824</t>
+          <t>14.8980360749457</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>120.743048619728</t>
+          <t>120.764234222054</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3135</t>
+          <t>2513</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6270</t>
+          <t>5026</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>188100000</t>
+          <t>150780000</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -872,22 +872,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Danga Dike</t>
+          <t>Frances E.C.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14.9271290793079</t>
+          <t>14.9194611702998</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>120.75016278348</t>
+          <t>120.762172685224</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>150</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -897,27 +897,27 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>300</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>7560000</t>
+          <t>9000000</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -933,22 +933,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Meysulao Multipurpose/E.C.</t>
+          <t>Balungao E.C.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14.905513184046</t>
+          <t>14.9148551401837</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>120.739161033176</t>
+          <t>120.761492937455</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>216</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -958,12 +958,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>432</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>6000000</t>
+          <t>12960000</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -994,22 +994,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Calizon Dike</t>
+          <t>Gugo E.C.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14.9136800407707</t>
+          <t>14.9013032539823</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>120.755871075221</t>
+          <t>120.754718122165</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>336</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1019,27 +1019,27 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>672</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7560000</t>
+          <t>20160000</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1055,22 +1055,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>San Marcos Elem. Sch.</t>
+          <t>San Marcos E.C.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14.8978852342351</t>
+          <t>14.8976681596682</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>120.778807101888</t>
+          <t>120.779685551006</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1147</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1080,12 +1080,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2294</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>68820000</t>
+          <t>2400000</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1116,22 +1116,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>San Marcos National H.S.</t>
+          <t>San Jose E.C.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14.8933901983676</t>
+          <t>14.8832975084056</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>120.777840587943</t>
+          <t>120.734533125581</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6353</t>
+          <t>268</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12706</t>
+          <t>536</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>381180000</t>
+          <t>16080000</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1177,22 +1177,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GMA Kapuso E.C.</t>
+          <t>MEYTO Multi-Purpose/ E.C.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14.8930053477281</t>
+          <t>14.8833047964844</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>120.799658008805</t>
+          <t>120.72904705443</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1202,58 +1202,58 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>284</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12000000</t>
+          <t>8520000</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Damaged</t>
+          <t>Built</t>
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NV9 Multi-Purpose</t>
+          <t>Barangay Hall Bulusan</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14.8980360749457</t>
+          <t>14.9087960788938</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>120.764234222054</t>
+          <t>120.742261855893</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2513</t>
+          <t>700</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1263,12 +1263,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5026</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>150780000</t>
+          <t>42000000</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Frances E.C.</t>
+          <t>Brgy. Hall Sta. Lucia</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14.9194611702998</t>
+          <t>14.8995538574762</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>120.762172685224</t>
+          <t>120.737428917917</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1356,26 +1356,26 @@
     </row>
     <row r="16">
       <c r="A16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Balungao E.C.</t>
+          <t>Mun. Covered Court</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14.9148551401837</t>
+          <t>14.9141384055205</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>120.761492937455</t>
+          <t>120.764788274642</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>713</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1385,12 +1385,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>1426</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>12960000</t>
+          <t>42780000</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1414,433 +1414,6 @@
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Gugo E.C.</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>14.9013032539823</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>120.754718122165</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>336</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>672</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>20160000</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>San Marcos E.C.</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>14.8976681596682</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>120.779685551006</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2400000</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>San Jose E.C.</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>14.8832975084056</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>120.734533125581</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>268</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>536</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>16080000</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MEYTO Multi-Purpose/ E.C.</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>14.8833047964844</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>120.72904705443</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>8520000</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="b">
-        <v>0</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Barangay Hall Bulusan</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>14.9087960788938</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>120.742261855893</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1400</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>42000000</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="b">
-        <v>0</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Brgy. Hall Sta. Lucia</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>14.8995538574762</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>120.737428917917</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>9000000</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="b">
-        <v>1</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Mun. Covered Court</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>14.9141384055205</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>120.764788274642</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>713</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>1426</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>42780000</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ProgramSrc/shelData.xlsx
+++ b/ProgramSrc/shelData.xlsx
@@ -509,50 +509,32 @@
           <t>San Miguel Meysulao High School</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>14.9167991010101</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>120.742941581954</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3464</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6928</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>207840000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="C2" t="n">
+        <v>14.9267991010101</v>
+      </c>
+      <c r="D2" t="n">
+        <v>120.742941581954</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3464</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6928</v>
+      </c>
+      <c r="H2" t="n">
+        <v>207840000</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -570,50 +552,32 @@
           <t>Danga Dike</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>14.9271290793079</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>120.75016278348</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>7560000</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
+      <c r="C3" t="n">
+        <v>14.9271290793079</v>
+      </c>
+      <c r="D3" t="n">
+        <v>120.75016278348</v>
+      </c>
+      <c r="E3" t="n">
+        <v>126</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>252</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7560000</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -631,50 +595,32 @@
           <t>San Marcos Elem. Sch.</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>14.8978852342351</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>120.778807101888</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1147</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2294</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>68820000</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
+      <c r="C4" t="n">
+        <v>14.8978852342351</v>
+      </c>
+      <c r="D4" t="n">
+        <v>120.778807101888</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1147</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2294</v>
+      </c>
+      <c r="H4" t="n">
+        <v>68820000</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -692,50 +638,32 @@
           <t>San Marcos National H.S.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>14.8933901983676</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>120.777840587943</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6353</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>12706</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>381180000</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
+      <c r="C5" t="n">
+        <v>14.8933901983676</v>
+      </c>
+      <c r="D5" t="n">
+        <v>120.777840587943</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6353</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12706</v>
+      </c>
+      <c r="H5" t="n">
+        <v>381180000</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -753,50 +681,32 @@
           <t>GMA Kapuso E.C.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>14.8930053477281</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>120.799658008805</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>12000000</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
+      <c r="C6" t="n">
+        <v>14.8930053477281</v>
+      </c>
+      <c r="D6" t="n">
+        <v>120.799658008805</v>
+      </c>
+      <c r="E6" t="n">
+        <v>200</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>400</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -814,50 +724,32 @@
           <t>NV9 Multi-Purpose</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>14.8980360749457</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>120.764234222054</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2513</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>5026</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>150780000</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="C7" t="n">
+        <v>14.8980360749457</v>
+      </c>
+      <c r="D7" t="n">
+        <v>120.764234222054</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2513</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5026</v>
+      </c>
+      <c r="H7" t="n">
+        <v>150780000</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -875,50 +767,32 @@
           <t>Frances E.C.</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>14.9194611702998</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>120.762172685224</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>9000000</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="C8" t="n">
+        <v>14.9194611702998</v>
+      </c>
+      <c r="D8" t="n">
+        <v>120.762172685224</v>
+      </c>
+      <c r="E8" t="n">
+        <v>150</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>300</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -936,50 +810,32 @@
           <t>Balungao E.C.</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>14.9148551401837</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>120.761492937455</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>432</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>12960000</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="C9" t="n">
+        <v>14.9148551401837</v>
+      </c>
+      <c r="D9" t="n">
+        <v>120.761492937455</v>
+      </c>
+      <c r="E9" t="n">
+        <v>216</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>432</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12960000</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -997,50 +853,32 @@
           <t>Gugo E.C.</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>14.9013032539823</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>120.754718122165</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>336</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>672</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>20160000</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="C10" t="n">
+        <v>14.9013032539823</v>
+      </c>
+      <c r="D10" t="n">
+        <v>120.754718122165</v>
+      </c>
+      <c r="E10" t="n">
+        <v>336</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>672</v>
+      </c>
+      <c r="H10" t="n">
+        <v>20160000</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1058,50 +896,32 @@
           <t>San Marcos E.C.</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>14.8976681596682</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>120.779685551006</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2400000</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="C11" t="n">
+        <v>14.8976681596682</v>
+      </c>
+      <c r="D11" t="n">
+        <v>120.779685551006</v>
+      </c>
+      <c r="E11" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>80</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1119,50 +939,32 @@
           <t>San Jose E.C.</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>14.8832975084056</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>120.734533125581</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>268</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>536</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>16080000</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="C12" t="n">
+        <v>14.8832975084056</v>
+      </c>
+      <c r="D12" t="n">
+        <v>120.734533125581</v>
+      </c>
+      <c r="E12" t="n">
+        <v>268</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>536</v>
+      </c>
+      <c r="H12" t="n">
+        <v>16080000</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1180,50 +982,32 @@
           <t>MEYTO Multi-Purpose/ E.C.</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>14.8833047964844</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>120.72904705443</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>8520000</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="C13" t="n">
+        <v>14.8833047964844</v>
+      </c>
+      <c r="D13" t="n">
+        <v>120.72904705443</v>
+      </c>
+      <c r="E13" t="n">
+        <v>142</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>284</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8520000</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1241,50 +1025,32 @@
           <t>Barangay Hall Bulusan</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>14.9087960788938</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>120.742261855893</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1400</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>42000000</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="C14" t="n">
+        <v>14.9087960788938</v>
+      </c>
+      <c r="D14" t="n">
+        <v>120.742261855893</v>
+      </c>
+      <c r="E14" t="n">
+        <v>700</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1400</v>
+      </c>
+      <c r="H14" t="n">
+        <v>42000000</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1302,50 +1068,32 @@
           <t>Brgy. Hall Sta. Lucia</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>14.8995538574762</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>120.737428917917</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>9000000</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="C15" t="n">
+        <v>14.8995538574762</v>
+      </c>
+      <c r="D15" t="n">
+        <v>120.737428917917</v>
+      </c>
+      <c r="E15" t="n">
+        <v>150</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>300</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1363,50 +1111,32 @@
           <t>Mun. Covered Court</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>14.9141384055205</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>120.764788274642</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>713</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1426</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>42780000</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="C16" t="n">
+        <v>14.9141384055205</v>
+      </c>
+      <c r="D16" t="n">
+        <v>120.764788274642</v>
+      </c>
+      <c r="E16" t="n">
+        <v>713</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1426</v>
+      </c>
+      <c r="H16" t="n">
+        <v>42780000</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>

--- a/ProgramSrc/shelData.xlsx
+++ b/ProgramSrc/shelData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,32 +509,50 @@
           <t>San Miguel Meysulao High School</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>14.9267991010101</v>
-      </c>
-      <c r="D2" t="n">
-        <v>120.742941581954</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3464</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6928</v>
-      </c>
-      <c r="H2" t="n">
-        <v>207840000</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>14.9267991010101</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>120.742941581954</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3464</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6928</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>207840000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -545,39 +563,57 @@
     </row>
     <row r="3">
       <c r="A3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Danga Dike</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>14.9271290793079</v>
-      </c>
-      <c r="D3" t="n">
-        <v>120.75016278348</v>
-      </c>
-      <c r="E3" t="n">
-        <v>126</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>252</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7560000</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14.9271290793079</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>120.75016278348</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>7560000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -588,39 +624,57 @@
     </row>
     <row r="4">
       <c r="A4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>San Marcos Elem. Sch.</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>14.8978852342351</v>
-      </c>
-      <c r="D4" t="n">
-        <v>120.778807101888</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1147</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2294</v>
-      </c>
-      <c r="H4" t="n">
-        <v>68820000</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14.8978852342351</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120.778807101888</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1147</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>68820000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -631,39 +685,57 @@
     </row>
     <row r="5">
       <c r="A5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>San Marcos National H.S.</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14.8933901983676</v>
-      </c>
-      <c r="D5" t="n">
-        <v>120.777840587943</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6353</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>12706</v>
-      </c>
-      <c r="H5" t="n">
-        <v>381180000</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
+          <t>NV9 Multi-Purpose</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14.8980360749457</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>120.764234222054</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2513</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5026</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>150780000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -678,39 +750,57 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GMA Kapuso E.C.</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14.8930053477281</v>
-      </c>
-      <c r="D6" t="n">
-        <v>120.799658008805</v>
-      </c>
-      <c r="E6" t="n">
-        <v>200</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>400</v>
-      </c>
-      <c r="H6" t="n">
-        <v>12000000</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
+          <t>San Marcos E.C.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14.8976681596682</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>120.779685551006</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2400000</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Damaged</t>
+          <t>Built</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
@@ -721,35 +811,53 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NV9 Multi-Purpose</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>14.8980360749457</v>
-      </c>
-      <c r="D7" t="n">
-        <v>120.764234222054</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2513</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5026</v>
-      </c>
-      <c r="H7" t="n">
-        <v>150780000</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
+          <t>MEYTO Multi-Purpose/ E.C.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14.8833047964844</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>120.72904705443</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>8520000</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -764,35 +872,53 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Frances E.C.</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>14.9194611702998</v>
-      </c>
-      <c r="D8" t="n">
-        <v>120.762172685224</v>
-      </c>
-      <c r="E8" t="n">
-        <v>150</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>300</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
+          <t>Barangay Hall Bulusan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14.9087960788938</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>120.742261855893</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>42000000</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -807,35 +933,53 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Balungao E.C.</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>14.9148551401837</v>
-      </c>
-      <c r="D9" t="n">
-        <v>120.761492937455</v>
-      </c>
-      <c r="E9" t="n">
-        <v>216</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>432</v>
-      </c>
-      <c r="H9" t="n">
-        <v>12960000</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
+          <t>Brgy. Hall Sta. Lucia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14.8995538574762</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>120.737428917917</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>9000000</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -843,307 +987,6 @@
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Gugo E.C.</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>14.9013032539823</v>
-      </c>
-      <c r="D10" t="n">
-        <v>120.754718122165</v>
-      </c>
-      <c r="E10" t="n">
-        <v>336</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>672</v>
-      </c>
-      <c r="H10" t="n">
-        <v>20160000</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>San Marcos E.C.</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>14.8976681596682</v>
-      </c>
-      <c r="D11" t="n">
-        <v>120.779685551006</v>
-      </c>
-      <c r="E11" t="n">
-        <v>40</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>80</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2400000</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>San Jose E.C.</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>14.8832975084056</v>
-      </c>
-      <c r="D12" t="n">
-        <v>120.734533125581</v>
-      </c>
-      <c r="E12" t="n">
-        <v>268</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>536</v>
-      </c>
-      <c r="H12" t="n">
-        <v>16080000</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MEYTO Multi-Purpose/ E.C.</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>14.8833047964844</v>
-      </c>
-      <c r="D13" t="n">
-        <v>120.72904705443</v>
-      </c>
-      <c r="E13" t="n">
-        <v>142</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>284</v>
-      </c>
-      <c r="H13" t="n">
-        <v>8520000</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Barangay Hall Bulusan</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>14.9087960788938</v>
-      </c>
-      <c r="D14" t="n">
-        <v>120.742261855893</v>
-      </c>
-      <c r="E14" t="n">
-        <v>700</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1400</v>
-      </c>
-      <c r="H14" t="n">
-        <v>42000000</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Brgy. Hall Sta. Lucia</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>14.8995538574762</v>
-      </c>
-      <c r="D15" t="n">
-        <v>120.737428917917</v>
-      </c>
-      <c r="E15" t="n">
-        <v>150</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>300</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="b">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Mun. Covered Court</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>14.9141384055205</v>
-      </c>
-      <c r="D16" t="n">
-        <v>120.764788274642</v>
-      </c>
-      <c r="E16" t="n">
-        <v>713</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1426</v>
-      </c>
-      <c r="H16" t="n">
-        <v>42780000</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ProgramSrc/shelData.xlsx
+++ b/ProgramSrc/shelData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,22 +506,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>San Miguel Meysulao High School</t>
+          <t>BMLTC Multi-Purpose Bldg and EC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14.9267991010101</t>
+          <t>14.9185376869108</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>120.742941581954</t>
+          <t>120.766768211462</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3464</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -531,17 +531,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6928</t>
+          <t>3282</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>207840000</t>
+          <t>98460000</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -563,26 +563,26 @@
     </row>
     <row r="3">
       <c r="A3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Danga Dike</t>
+          <t>F. Mendoza Memorial Elem Sch.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14.9271290793079</t>
+          <t>14.9176780529243</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>120.75016278348</t>
+          <t>120.767878787289</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>1671</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -592,32 +592,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>3342</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>7560000</t>
+          <t>100260000</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Partially Built</t>
+          <t>Built</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
@@ -628,22 +628,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>San Marcos Elem. Sch.</t>
+          <t>Calumpit Sports Complex</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14.8978852342351</t>
+          <t>14.9185209048724</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>120.778807101888</t>
+          <t>120.767571728115</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1147</t>
+          <t>947</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -653,12 +653,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2294</t>
+          <t>1894</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>68820000</t>
+          <t>56820000</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -689,22 +689,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NV9 Multi-Purpose</t>
+          <t>Gatbuca Basketball Court</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14.8980360749457</t>
+          <t>14.9221390531142</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>120.764234222054</t>
+          <t>120.766774213649</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2513</t>
+          <t>376</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -714,12 +714,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5026</t>
+          <t>752</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>150780000</t>
+          <t>22560000</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -746,26 +746,26 @@
     </row>
     <row r="6">
       <c r="A6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>San Marcos E.C.</t>
+          <t>San Miguel Meysulao High School</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14.8976681596682</t>
+          <t>14.9167991010101</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>120.779685551006</t>
+          <t>120.742941581954</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>3464</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -775,12 +775,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>6928</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2400000</t>
+          <t>207840000</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -811,22 +811,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEYTO Multi-Purpose/ E.C.</t>
+          <t>Doña Damiana Elem School</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14.8833047964844</t>
+          <t>14.917701586824</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>120.72904705443</t>
+          <t>120.743048619728</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>3135</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>6270</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>8520000</t>
+          <t>188100000</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -872,22 +872,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Barangay Hall Bulusan</t>
+          <t>Danga Dike</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14.9087960788938</t>
+          <t>14.9271290793079</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>120.742261855893</t>
+          <t>120.75016278348</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>126</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -897,27 +897,27 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>252</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>42000000</t>
+          <t>7560000</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -933,60 +933,914 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Meysulao Multipurpose/E.C.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14.905513184046</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>120.739161033176</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6000000</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Calizon Dike</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14.9136800407707</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>120.755871075221</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>7560000</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>San Marcos Elem. Sch.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>14.8978852342351</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>120.778807101888</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1147</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>68820000</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>San Marcos National H.S.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14.8933901983676</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>120.777840587943</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6353</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>12706</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>381180000</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GMA Kapuso E.C.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14.8930053477281</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>120.799658008805</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12000000</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NV9 Multi-Purpose</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14.8980360749457</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>120.764234222054</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2513</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>5026</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>150780000</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Frances E.C.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14.9194611702998</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>120.762172685224</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>9000000</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Balungao E.C.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14.9148551401837</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>120.761492937455</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>12960000</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Gugo E.C.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>14.9013032539823</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>120.754718122165</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>20160000</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>San Marcos E.C.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14.8976681596682</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>120.779685551006</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2400000</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>San Jose E.C.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14.8832975084056</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>120.734533125581</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>16080000</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MEYTO Multi-Purpose/ E.C.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14.8833047964844</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>120.72904705443</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>8520000</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Barangay Hall Bulusan</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14.9087960788938</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>120.742261855893</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>42000000</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>Brgy. Hall Sta. Lucia</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>14.8995538574762</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>120.737428917917</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>300</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>9000000</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mun. Covered Court</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14.9141384055205</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>120.764788274642</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1426</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>42780000</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ProgramSrc/shelData.xlsx
+++ b/ProgramSrc/shelData.xlsx
@@ -648,7 +648,7 @@
         <v>376</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G5" t="n">
         <v>752</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="10">
       <c r="A10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="15">
       <c r="A15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>

--- a/ProgramSrc/shelData.xlsx
+++ b/ProgramSrc/shelData.xlsx
@@ -849,7 +849,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>

--- a/ProgramSrc/shelData.xlsx
+++ b/ProgramSrc/shelData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="239">
   <si>
     <t>Active</t>
   </si>
@@ -121,6 +121,39 @@
     <t>Mun. Covered Court</t>
   </si>
   <si>
+    <t>Pio Cruzcosa Empty Lot</t>
+  </si>
+  <si>
+    <t>Palimbang Empty Lot</t>
+  </si>
+  <si>
+    <t>Iba O'Este Empty Lot 1</t>
+  </si>
+  <si>
+    <t>Iba O'Este Empty Lot 2</t>
+  </si>
+  <si>
+    <t>Caniogan Empty Lot</t>
+  </si>
+  <si>
+    <t>Iba O'Este Empty Lot 3</t>
+  </si>
+  <si>
+    <t>Iba O'Este Empty Lot 4</t>
+  </si>
+  <si>
+    <t>Caniogan Empty Lot 2</t>
+  </si>
+  <si>
+    <t>Corazon Empty Lot 1</t>
+  </si>
+  <si>
+    <t>Corazon Empty Lot 2</t>
+  </si>
+  <si>
+    <t>Gugo Empty Lot</t>
+  </si>
+  <si>
     <t>14.9185376869108</t>
   </si>
   <si>
@@ -187,6 +220,39 @@
     <t>14.9141384055205</t>
   </si>
   <si>
+    <t>14.88320427</t>
+  </si>
+  <si>
+    <t>14.90055246</t>
+  </si>
+  <si>
+    <t>14.90486499</t>
+  </si>
+  <si>
+    <t>14.90533972</t>
+  </si>
+  <si>
+    <t>14.9054393</t>
+  </si>
+  <si>
+    <t>14.90612371</t>
+  </si>
+  <si>
+    <t>14.9074852</t>
+  </si>
+  <si>
+    <t>14.9078124</t>
+  </si>
+  <si>
+    <t>14.91001504</t>
+  </si>
+  <si>
+    <t>14.91044971</t>
+  </si>
+  <si>
+    <t>14.91055583</t>
+  </si>
+  <si>
     <t>120.766768211462</t>
   </si>
   <si>
@@ -253,6 +319,39 @@
     <t>120.764788274642</t>
   </si>
   <si>
+    <t>120.7891165</t>
+  </si>
+  <si>
+    <t>120.7730115</t>
+  </si>
+  <si>
+    <t>120.7683146</t>
+  </si>
+  <si>
+    <t>120.7679044</t>
+  </si>
+  <si>
+    <t>120.7681896</t>
+  </si>
+  <si>
+    <t>120.7673859</t>
+  </si>
+  <si>
+    <t>120.7668317</t>
+  </si>
+  <si>
+    <t>120.7674081</t>
+  </si>
+  <si>
+    <t>120.7668446</t>
+  </si>
+  <si>
+    <t>120.7667966</t>
+  </si>
+  <si>
+    <t>120.7664613</t>
+  </si>
+  <si>
     <t>1641</t>
   </si>
   <si>
@@ -313,10 +412,130 @@
     <t>713</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>70</t>
+    <t>3870</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>12635700</t>
+  </si>
+  <si>
+    <t>12866700</t>
+  </si>
+  <si>
+    <t>7291900</t>
+  </si>
+  <si>
+    <t>2895200</t>
+  </si>
+  <si>
+    <t>26672800</t>
+  </si>
+  <si>
+    <t>24139500</t>
+  </si>
+  <si>
+    <t>970200</t>
+  </si>
+  <si>
+    <t>770000</t>
+  </si>
+  <si>
+    <t>8831900</t>
+  </si>
+  <si>
+    <t>48918100</t>
+  </si>
+  <si>
+    <t>1540000</t>
+  </si>
+  <si>
+    <t>19350100</t>
+  </si>
+  <si>
+    <t>1155000</t>
+  </si>
+  <si>
+    <t>1663200</t>
+  </si>
+  <si>
+    <t>2587200</t>
+  </si>
+  <si>
+    <t>308000</t>
+  </si>
+  <si>
+    <t>2063600</t>
+  </si>
+  <si>
+    <t>1093400</t>
+  </si>
+  <si>
+    <t>5390000</t>
+  </si>
+  <si>
+    <t>5490100</t>
+  </si>
+  <si>
+    <t>280575000</t>
+  </si>
+  <si>
+    <t>137967500</t>
+  </si>
+  <si>
+    <t>16457500</t>
+  </si>
+  <si>
+    <t>22330000</t>
+  </si>
+  <si>
+    <t>23780000</t>
+  </si>
+  <si>
+    <t>26172500</t>
+  </si>
+  <si>
+    <t>20807500</t>
+  </si>
+  <si>
+    <t>43862500</t>
+  </si>
+  <si>
+    <t>74095000</t>
+  </si>
+  <si>
+    <t>28565000</t>
+  </si>
+  <si>
+    <t>38207500</t>
   </si>
   <si>
     <t>3282</t>
@@ -376,6 +595,39 @@
     <t>1426</t>
   </si>
   <si>
+    <t>7740</t>
+  </si>
+  <si>
+    <t>3806</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>616</t>
+  </si>
+  <si>
+    <t>656</t>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>788</t>
+  </si>
+  <si>
+    <t>1054</t>
+  </si>
+  <si>
     <t>98460000</t>
   </si>
   <si>
@@ -436,6 +688,39 @@
     <t>42780000</t>
   </si>
   <si>
+    <t>512775000</t>
+  </si>
+  <si>
+    <t>252147500</t>
+  </si>
+  <si>
+    <t>30077500</t>
+  </si>
+  <si>
+    <t>40810000</t>
+  </si>
+  <si>
+    <t>43460000</t>
+  </si>
+  <si>
+    <t>47832500</t>
+  </si>
+  <si>
+    <t>38027500</t>
+  </si>
+  <si>
+    <t>80162500</t>
+  </si>
+  <si>
+    <t>135415000</t>
+  </si>
+  <si>
+    <t>52205000</t>
+  </si>
+  <si>
+    <t>69827500</t>
+  </si>
+  <si>
     <t>True</t>
   </si>
   <si>
@@ -443,6 +728,9 @@
   </si>
   <si>
     <t>Built</t>
+  </si>
+  <si>
+    <t>Empty Lot</t>
   </si>
 </sst>
 </file>
@@ -800,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -849,40 +1137,40 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="K2" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="L2" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -893,110 +1181,110 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="K3" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="L3" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="I4" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="J4" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="K4" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="L4" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="G5" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="K5" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="L5" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1007,34 +1295,34 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="I6" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="J6" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="K6" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="L6" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1045,110 +1333,110 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="H7" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="I7" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="J7" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="K7" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="L7" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="H8" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="I8" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="J8" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="K8" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="L8" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="H9" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="I9" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="J9" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="K9" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="L9" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1159,110 +1447,110 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="H10" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="I10" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="J10" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="K10" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="L10" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="H11" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="I11" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="J11" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="K11" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="L11" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="H12" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1273,72 +1561,72 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="H13" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="H14" t="s">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1349,34 +1637,34 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="H15" t="s">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="L15" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1387,186 +1675,186 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="K17" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="L17" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="H18" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="J18" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="K18" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="L18" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="H19" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="I19" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="K19" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="L19" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="H20" t="s">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="I20" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="J20" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="K20" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="L20" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1577,110 +1865,528 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="F21" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="G21" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="I21" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="J21" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="K21" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="L21" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="H22" t="s">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="I22" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="J22" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="K22" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H23" t="s">
+        <v>223</v>
+      </c>
+      <c r="I23" t="s">
+        <v>235</v>
+      </c>
+      <c r="J23" t="s">
+        <v>235</v>
+      </c>
+      <c r="K23" t="s">
+        <v>235</v>
+      </c>
+      <c r="L23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" t="s">
+        <v>224</v>
+      </c>
+      <c r="I24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" t="s">
+        <v>235</v>
+      </c>
+      <c r="K24" t="s">
+        <v>235</v>
+      </c>
+      <c r="L24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="b">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" t="s">
+        <v>194</v>
+      </c>
+      <c r="H25" t="s">
+        <v>225</v>
+      </c>
+      <c r="I25" t="s">
+        <v>235</v>
+      </c>
+      <c r="J25" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="b">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" t="s">
+        <v>226</v>
+      </c>
+      <c r="I26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" t="s">
+        <v>235</v>
+      </c>
+      <c r="L26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" t="s">
+        <v>196</v>
+      </c>
+      <c r="H27" t="s">
+        <v>227</v>
+      </c>
+      <c r="I27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" t="s">
+        <v>235</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" t="s">
+        <v>167</v>
+      </c>
+      <c r="G28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" t="s">
+        <v>228</v>
+      </c>
+      <c r="I28" t="s">
+        <v>235</v>
+      </c>
+      <c r="J28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" t="s">
+        <v>235</v>
+      </c>
+      <c r="L28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" t="s">
+        <v>168</v>
+      </c>
+      <c r="G29" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" t="s">
+        <v>229</v>
+      </c>
+      <c r="I29" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" t="s">
+        <v>235</v>
+      </c>
+      <c r="K29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="b">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" t="s">
+        <v>230</v>
+      </c>
+      <c r="I30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" t="s">
+        <v>235</v>
+      </c>
+      <c r="L30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="b">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" t="s">
+        <v>200</v>
+      </c>
+      <c r="H31" t="s">
+        <v>231</v>
+      </c>
+      <c r="I31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K31" t="s">
+        <v>235</v>
+      </c>
+      <c r="L31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="b">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" t="s">
+        <v>201</v>
+      </c>
+      <c r="H32" t="s">
+        <v>232</v>
+      </c>
+      <c r="I32" t="s">
+        <v>235</v>
+      </c>
+      <c r="J32" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" t="s">
+        <v>202</v>
+      </c>
+      <c r="H33" t="s">
+        <v>233</v>
+      </c>
+      <c r="I33" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" t="s">
+        <v>235</v>
+      </c>
+      <c r="K33" t="s">
+        <v>235</v>
+      </c>
+      <c r="L33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="b">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
         <v>78</v>
       </c>
-      <c r="E23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" t="s">
-        <v>119</v>
-      </c>
-      <c r="H23" t="s">
-        <v>139</v>
-      </c>
-      <c r="I23" t="s">
-        <v>140</v>
-      </c>
-      <c r="J23" t="s">
-        <v>140</v>
-      </c>
-      <c r="K23" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" t="s">
         <v>142</v>
+      </c>
+      <c r="F34" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" t="s">
+        <v>203</v>
+      </c>
+      <c r="H34" t="s">
+        <v>234</v>
+      </c>
+      <c r="I34" t="s">
+        <v>235</v>
+      </c>
+      <c r="J34" t="s">
+        <v>235</v>
+      </c>
+      <c r="K34" t="s">
+        <v>235</v>
+      </c>
+      <c r="L34" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/ProgramSrc/shelData.xlsx
+++ b/ProgramSrc/shelData.xlsx
@@ -22,10 +22,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>xDegrees</t>
-  </si>
-  <si>
-    <t>yDegrees</t>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
   <si>
     <t>Area1</t>
